--- a/Pacientes.xlsx
+++ b/Pacientes.xlsx
@@ -22,7 +22,7 @@
     <t>Peso (kg)</t>
   </si>
   <si>
-    <t>Altura (cm)</t>
+    <t>Altura (m)</t>
   </si>
   <si>
     <t>Geraldo</t>
@@ -57,13 +57,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -117,16 +123,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -447,7 +453,7 @@
     <col min="3" max="3" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -469,7 +475,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -480,7 +486,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -491,7 +497,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -546,7 +552,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
